--- a/stats/feature_importances.xlsx
+++ b/stats/feature_importances.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -10,16 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>MODEL</t>
   </si>
@@ -382,6 +378,186 @@
   </si>
   <si>
     <t>TF_RFM_16EST_Mini</t>
+  </si>
+  <si>
+    <t>0.04312006</t>
+  </si>
+  <si>
+    <t>0.02462399</t>
+  </si>
+  <si>
+    <t>0.05077149</t>
+  </si>
+  <si>
+    <t>0.03813246</t>
+  </si>
+  <si>
+    <t>0.0346776</t>
+  </si>
+  <si>
+    <t>0.03325082</t>
+  </si>
+  <si>
+    <t>0.03523654</t>
+  </si>
+  <si>
+    <t>0.03549529</t>
+  </si>
+  <si>
+    <t>0.0370102</t>
+  </si>
+  <si>
+    <t>0.03744505</t>
+  </si>
+  <si>
+    <t>0.03113494</t>
+  </si>
+  <si>
+    <t>0.0212106</t>
+  </si>
+  <si>
+    <t>0.03849458</t>
+  </si>
+  <si>
+    <t>0.03874925</t>
+  </si>
+  <si>
+    <t>0.03587636</t>
+  </si>
+  <si>
+    <t>0.00465042</t>
+  </si>
+  <si>
+    <t>0.0352915</t>
+  </si>
+  <si>
+    <t>0.00343765</t>
+  </si>
+  <si>
+    <t>0.03840739</t>
+  </si>
+  <si>
+    <t>0.03878988</t>
+  </si>
+  <si>
+    <t>0.03958727</t>
+  </si>
+  <si>
+    <t>0.038884</t>
+  </si>
+  <si>
+    <t>0.03707602</t>
+  </si>
+  <si>
+    <t>0.03867306</t>
+  </si>
+  <si>
+    <t>0.03780599</t>
+  </si>
+  <si>
+    <t>TF_RFM_8EST_OneFile_StandardScaler</t>
+  </si>
+  <si>
+    <t>0.03846870</t>
+  </si>
+  <si>
+    <t>0.03800371</t>
+  </si>
+  <si>
+    <t>0.038546360</t>
+  </si>
+  <si>
+    <t>0.03714882</t>
+  </si>
+  <si>
+    <t>0.04305719</t>
+  </si>
+  <si>
+    <t>0.02464856</t>
+  </si>
+  <si>
+    <t>0.04997817</t>
+  </si>
+  <si>
+    <t>0.03826532</t>
+  </si>
+  <si>
+    <t>0.03446725</t>
+  </si>
+  <si>
+    <t>0.03323922</t>
+  </si>
+  <si>
+    <t>0.03508547</t>
+  </si>
+  <si>
+    <t>0.0350445</t>
+  </si>
+  <si>
+    <t>0.03728393</t>
+  </si>
+  <si>
+    <t>0.03793288</t>
+  </si>
+  <si>
+    <t>0.02999546</t>
+  </si>
+  <si>
+    <t>0.02140022</t>
+  </si>
+  <si>
+    <t>0.03925793</t>
+  </si>
+  <si>
+    <t>0.03852461</t>
+  </si>
+  <si>
+    <t>0.03571251</t>
+  </si>
+  <si>
+    <t>0.00465506</t>
+  </si>
+  <si>
+    <t>0.0349054</t>
+  </si>
+  <si>
+    <t>0.0377932</t>
+  </si>
+  <si>
+    <t>0.03797627</t>
+  </si>
+  <si>
+    <t>0.00367465</t>
+  </si>
+  <si>
+    <t>0.03819847</t>
+  </si>
+  <si>
+    <t>0.03993154</t>
+  </si>
+  <si>
+    <t>0.03920846</t>
+  </si>
+  <si>
+    <t>0.03921551</t>
+  </si>
+  <si>
+    <t>0.03709872</t>
+  </si>
+  <si>
+    <t>0.03823104</t>
+  </si>
+  <si>
+    <t>0.03784594</t>
+  </si>
+  <si>
+    <t>0.0390163</t>
+  </si>
+  <si>
+    <t>0.03835623</t>
+  </si>
+  <si>
+    <t>TF_RFM_32EST_OneFile_StandardScaler</t>
   </si>
 </sst>
 </file>
@@ -432,9 +608,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -703,18 +876,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="S1:AD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
@@ -729,13 +902,13 @@
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="10.109375" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" customWidth="1"/>
     <col min="20" max="20" width="12.77734375" customWidth="1"/>
     <col min="21" max="21" width="12.109375" customWidth="1"/>
     <col min="22" max="22" width="12.33203125" customWidth="1"/>
     <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" customWidth="1"/>
-    <col min="25" max="25" width="12.5546875" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" customWidth="1"/>
     <col min="26" max="26" width="12.21875" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" customWidth="1"/>
     <col min="28" max="28" width="12.6640625" customWidth="1"/>
@@ -1115,6 +1288,190 @@
         <v>120</v>
       </c>
     </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" t="s">
+        <v>137</v>
+      </c>
+      <c r="S6" t="s">
+        <v>147</v>
+      </c>
+      <c r="T6" t="s">
+        <v>148</v>
+      </c>
+      <c r="U6" t="s">
+        <v>138</v>
+      </c>
+      <c r="V6" t="s">
+        <v>139</v>
+      </c>
+      <c r="W6" t="s">
+        <v>140</v>
+      </c>
+      <c r="X6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>166</v>
+      </c>
+      <c r="R7" t="s">
+        <v>167</v>
+      </c>
+      <c r="S7" t="s">
+        <v>168</v>
+      </c>
+      <c r="T7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" t="s">
+        <v>170</v>
+      </c>
+      <c r="V7" t="s">
+        <v>171</v>
+      </c>
+      <c r="W7" t="s">
+        <v>172</v>
+      </c>
+      <c r="X7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
